--- a/analysis/results/Q1_norway/models/supplements_models_terminal_ileum.xlsx
+++ b/analysis/results/Q1_norway/models/supplements_models_terminal_ileum.xlsx
@@ -623,25 +623,25 @@
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.891754136386489</v>
+        <v>0.913037946073201</v>
       </c>
       <c r="E5" t="n">
-        <v>0.745239049145299</v>
+        <v>0.815342456427015</v>
       </c>
       <c r="F5" t="n">
-        <v>0.964050099206349</v>
+        <v>0.994668803418803</v>
       </c>
       <c r="G5" t="n">
         <v>0.792682926829268</v>
       </c>
       <c r="H5" t="n">
-        <v>0.771960281098212</v>
+        <v>0.787116851400165</v>
       </c>
       <c r="I5" t="n">
-        <v>0.654144562334217</v>
+        <v>0.613009404388715</v>
       </c>
       <c r="J5" t="n">
-        <v>0.903571428571429</v>
+        <v>0.932241379310345</v>
       </c>
     </row>
     <row r="6">
@@ -655,25 +655,25 @@
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.759963915076567</v>
+        <v>0.739809126356895</v>
       </c>
       <c r="E6" t="n">
-        <v>0.654720982142857</v>
+        <v>0.558708333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.920476190476191</v>
+        <v>0.895192307692308</v>
       </c>
       <c r="G6" t="n">
         <v>0.780487804878049</v>
       </c>
       <c r="H6" t="n">
-        <v>0.663789285427216</v>
+        <v>0.649058397346789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.581212121212121</v>
+        <v>0.490948275862069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.790384615384615</v>
+        <v>0.814814814814815</v>
       </c>
     </row>
     <row r="7">
@@ -687,25 +687,25 @@
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0.91343005952381</v>
+        <v>0.925884191092041</v>
       </c>
       <c r="E7" t="n">
-        <v>0.856785402097902</v>
+        <v>0.818223039215686</v>
       </c>
       <c r="F7" t="n">
-        <v>0.987851731601732</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0.819444444444444</v>
       </c>
       <c r="H7" t="n">
-        <v>0.762443833943834</v>
+        <v>0.794508394297812</v>
       </c>
       <c r="I7" t="n">
-        <v>0.609642857142857</v>
+        <v>0.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.93525</v>
+        <v>0.933333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -891,25 +891,25 @@
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>0.957941969522852</v>
+        <v>0.960425168619363</v>
       </c>
       <c r="G5" t="n">
-        <v>0.853787878787879</v>
+        <v>0.86685474537037</v>
       </c>
       <c r="H5" t="n">
-        <v>0.995309095860566</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.876201786719028</v>
+        <v>0.903387860047527</v>
       </c>
       <c r="K5" t="n">
-        <v>0.780244755244755</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.958275862068966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -929,25 +929,25 @@
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.929624442582541</v>
+        <v>0.92777947870225</v>
       </c>
       <c r="G6" t="n">
-        <v>0.900025510204082</v>
+        <v>0.822787047511312</v>
       </c>
       <c r="H6" t="n">
-        <v>0.956032037815126</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.868622354656837</v>
+        <v>0.866609644005364</v>
       </c>
       <c r="K6" t="n">
-        <v>0.774137931034483</v>
+        <v>0.71875</v>
       </c>
       <c r="L6" t="n">
-        <v>0.938030303030303</v>
+        <v>0.966666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -967,25 +967,25 @@
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>0.927135191197691</v>
+        <v>0.915169870519037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.857942708333333</v>
+        <v>0.792557315233786</v>
       </c>
       <c r="H7" t="n">
-        <v>0.994642857142857</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.821268823768824</v>
+        <v>0.816575862040871</v>
       </c>
       <c r="K7" t="n">
-        <v>0.714285714285714</v>
+        <v>0.651826923076923</v>
       </c>
       <c r="L7" t="n">
-        <v>0.939</v>
+        <v>0.954545454545455</v>
       </c>
     </row>
   </sheetData>
@@ -1186,25 +1186,25 @@
         <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.965486033574269</v>
+        <v>0.97839594347458</v>
       </c>
       <c r="H5" t="n">
-        <v>0.876070075757576</v>
+        <v>0.930046439628483</v>
       </c>
       <c r="I5" t="n">
-        <v>0.998392857142857</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.880370060973509</v>
+        <v>0.926224804303179</v>
       </c>
       <c r="L5" t="n">
-        <v>0.76724358974359</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="M5" t="n">
-        <v>0.964622015915119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1227,25 +1227,25 @@
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.946776484109399</v>
+        <v>0.935255971231356</v>
       </c>
       <c r="H6" t="n">
-        <v>0.897757787325457</v>
+        <v>0.844488795518207</v>
       </c>
       <c r="I6" t="n">
-        <v>0.977882090336134</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.865908459356735</v>
+        <v>0.879618400885127</v>
       </c>
       <c r="L6" t="n">
-        <v>0.796385941644562</v>
+        <v>0.765637254901961</v>
       </c>
       <c r="M6" t="n">
-        <v>0.927878787878788</v>
+        <v>0.966666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -1268,25 +1268,25 @@
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.930972441909942</v>
+        <v>0.925369987035325</v>
       </c>
       <c r="H7" t="n">
-        <v>0.883723958333333</v>
+        <v>0.822916666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>0.986931818181818</v>
+        <v>0.994833733974359</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.827059015059015</v>
+        <v>0.830574946574926</v>
       </c>
       <c r="L7" t="n">
-        <v>0.658928571428572</v>
+        <v>0.68</v>
       </c>
       <c r="M7" t="n">
-        <v>0.954</v>
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
